--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -528,6 +528,9 @@
       <c r="C11" t="str">
         <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -589,7 +592,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015151580131010100</v>
+        <v>01015151580131010105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,9 +532,91 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" xml:space="preserve">
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+      <c r="F17" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F18" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F20" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -592,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015151580131010105</v>
+        <v>01015151580131010105101020151520710200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -611,7 +611,7 @@
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -611,7 +611,7 @@
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+        <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -613,6 +613,9 @@
       <c r="C21" t="str">
         <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
+      <c r="F21" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -674,7 +677,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015151580131010105101020151520710200</v>
+        <v>01015151580131010105101020151520710203</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,12 +614,95 @@
         <v>110_绣球单瓣浅蓝_Hydrangea Light Blue S_Hydrangea L._1stem</v>
       </c>
       <c r="F21" t="str">
-        <v>3</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F22" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>5</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F29" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -677,7 +760,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015151580131010105101020151520710203</v>
+        <v>0101515158013101010510102015152071020302015151010101440100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -699,6 +699,9 @@
       <c r="C31" t="str">
         <v>48_香格里拉_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -760,7 +763,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101515158013101010510102015152071020302015151010101440100</v>
+        <v>01015151580131010105101020151520710203020151510101014401010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -703,9 +703,90 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>7</v>
+      </c>
+      <c r="C38" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>8</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">373_龙柳_Salix
+_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -763,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015151580131010105101020151520710203020151510101014401010</v>
+        <v>0101515158013101010510102015152071020302015151010101440101051015101101010100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-10-31.xlsx
@@ -747,6 +747,9 @@
       <c r="C37" t="str">
         <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
       </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -844,7 +847,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101515158013101010510102015152071020302015151010101440101051015101101010100</v>
+        <v>01015151580131010105101020151520710203020151510101014401010510151011101010100</v>
       </c>
     </row>
   </sheetData>
